--- a/Framework_Inputs/WLS/WorkLoadModelTemplate_v1.0.xlsx
+++ b/Framework_Inputs/WLS/WorkLoadModelTemplate_v1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nftuser\Documents\FrameworkRepo\Framework_Inputs\WLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BC8D7B-32EC-4D1F-B002-E82D2073014E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E46EA22-8024-4E56-9E74-DCCF7D471AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,39 +593,40 @@
         <v>22</v>
       </c>
       <c r="B2" s="3">
-        <v>12</v>
+        <f>K2*10%</f>
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <f>L2*10%</f>
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D4" si="0">C2*$B$2</f>
-        <v>12</v>
+        <f>C2*$B$2</f>
+        <v>25</v>
       </c>
       <c r="E2" s="3">
         <f>K2*30%</f>
         <v>75</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="E2:F4" si="1">L2*30%</f>
+        <f t="shared" ref="E2:F4" si="0">L2*30%</f>
         <v>3</v>
       </c>
       <c r="G2" s="3">
         <f>F2*$B$2</f>
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:I4" si="2">K2*60%</f>
+        <f t="shared" ref="H2:I4" si="1">K2*60%</f>
         <v>150</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J4" si="3">I2*$B$2</f>
-        <v>72</v>
+        <f t="shared" ref="J2:J4" si="2">I2*$B$2</f>
+        <v>150</v>
       </c>
       <c r="K2" s="3">
         <v>250</v>
@@ -634,42 +635,42 @@
         <v>10</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M4" si="4">L2*$B$2</f>
-        <v>120</v>
+        <f t="shared" ref="M2:M4" si="3">L2*$B$2</f>
+        <v>250</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" ref="N2:N4" si="5">K2*2</f>
+        <f t="shared" ref="N2:N4" si="4">K2*2</f>
         <v>500</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:O4" si="6">L2</f>
+        <f t="shared" ref="O2:O4" si="5">L2</f>
         <v>10</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:P4" si="7">O2*$B$2</f>
-        <v>120</v>
+        <f t="shared" ref="P2:P4" si="6">O2*$B$2</f>
+        <v>250</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q4" si="8">N2/O2</f>
+        <f>N2/O2</f>
         <v>50</v>
       </c>
       <c r="R2" s="3">
         <v>10</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:T4" si="9">K2*70%</f>
+        <f t="shared" ref="S2:T4" si="7">K2*70%</f>
         <v>175</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U4" si="10">T2*$B$2</f>
-        <v>84</v>
+        <f t="shared" ref="U2:U4" si="8">T2*$B$2</f>
+        <v>175</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" ref="V2:V4" si="11">K2/L2</f>
+        <f t="shared" ref="V2:V4" si="9">K2/L2</f>
         <v>25</v>
       </c>
       <c r="W2" s="3">
@@ -681,39 +682,40 @@
         <v>24</v>
       </c>
       <c r="B3" s="3">
-        <v>20</v>
+        <f t="shared" ref="B3:B4" si="10">K3*10%</f>
+        <v>30</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C4" si="12">L3*10%</f>
+        <f t="shared" ref="C3:C4" si="11">L3*10%</f>
         <v>2</v>
       </c>
       <c r="D3" s="3">
+        <f>C3*$B$2</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E3" s="3">
+        <v>90</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G4" si="12">F3*$B$2</f>
+        <v>150</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F3" s="3">
+        <v>180</v>
+      </c>
+      <c r="I3" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G4" si="13">F3*$B$2</f>
-        <v>72</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" si="3"/>
-        <v>144</v>
+        <f>I3*$B$2</f>
+        <v>300</v>
       </c>
       <c r="K3" s="3">
         <v>300</v>
@@ -722,42 +724,42 @@
         <v>20</v>
       </c>
       <c r="M3" s="3">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="N3" s="3">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="N3" s="3">
+        <v>600</v>
+      </c>
+      <c r="O3" s="3">
         <f t="shared" si="5"/>
-        <v>600</v>
-      </c>
-      <c r="O3" s="3">
+        <v>20</v>
+      </c>
+      <c r="P3" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="P3" s="3">
-        <f t="shared" si="7"/>
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="Q2:Q4" si="13">N3/O3</f>
         <v>30</v>
       </c>
       <c r="R3" s="3">
         <v>10</v>
       </c>
       <c r="S3" s="3">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="V3" s="3">
         <f t="shared" si="9"/>
-        <v>210</v>
-      </c>
-      <c r="T3" s="3">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" si="10"/>
-        <v>168</v>
-      </c>
-      <c r="V3" s="3">
-        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="W3" s="3">
@@ -769,84 +771,85 @@
         <v>23</v>
       </c>
       <c r="B4" s="3">
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4*$B$2</f>
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E4" s="3">
+        <v>150</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="F4" s="3">
+        <v>120</v>
+      </c>
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="13"/>
-        <v>72</v>
-      </c>
-      <c r="H4" s="3">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="3"/>
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="K4" s="3">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="L4" s="3">
         <v>20</v>
       </c>
       <c r="M4" s="3">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="N4" s="3">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="N4" s="3">
+        <v>400</v>
+      </c>
+      <c r="O4" s="3">
         <f t="shared" si="5"/>
-        <v>340</v>
-      </c>
-      <c r="O4" s="3">
+        <v>20</v>
+      </c>
+      <c r="P4" s="3">
         <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="13"/>
         <v>20</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="Q4" s="3">
-        <f t="shared" si="8"/>
-        <v>17</v>
       </c>
       <c r="R4" s="3">
         <v>10</v>
       </c>
       <c r="S4" s="3">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" si="9"/>
-        <v>118.99999999999999</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="10"/>
-        <v>168</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="11"/>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W4" s="3">
         <v>2</v>
@@ -858,6 +861,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100949CE1C30905B846A597364FDA45E48F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0b04227a2df37b771b08e1211ace384">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3bffceee-05df-448a-9da5-35921f8de3e1" xmlns:ns3="edf95c69-45f6-4b27-bec3-1dc5ad170efe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86b448a6d9fcecc7418580fe058150f6" ns2:_="" ns3:_="">
     <xsd:import namespace="3bffceee-05df-448a-9da5-35921f8de3e1"/>
@@ -1074,22 +1092,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{351725F1-7796-4DAF-943B-A46C7DCADE0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DAD3A61-EAD6-49BE-8134-F637A6B20C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9485FD-6F58-4F56-ABB4-E3FAF1846CCC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1106,21 +1126,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DAD3A61-EAD6-49BE-8134-F637A6B20C0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{351725F1-7796-4DAF-943B-A46C7DCADE0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>